--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
   <si>
     <t>priorite</t>
   </si>
@@ -273,12 +273,6 @@
     <t>modification logic pour offrir don pour les champ ajouter</t>
   </si>
   <si>
-    <t>page d'acceuil</t>
-  </si>
-  <si>
-    <t>modification - button, caroussele ?</t>
-  </si>
-  <si>
     <t>traitement de don par employé</t>
   </si>
   <si>
@@ -334,6 +328,21 @@
   </si>
   <si>
     <t>logique CRUD</t>
+  </si>
+  <si>
+    <t>Mise à jour page d'acceuil</t>
+  </si>
+  <si>
+    <t>Mise à jour image catégorie de don</t>
+  </si>
+  <si>
+    <t>Mise à jour barre de navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour connection avec la page connection d' un don </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour connection avec la page modifier  un don </t>
   </si>
 </sst>
 </file>
@@ -433,14 +442,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -470,9 +473,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,6 +496,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +855,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -851,7 +863,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -862,7 +874,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -873,7 +885,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -884,7 +896,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -1138,13 +1150,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="24">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -1155,9 +1167,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
       <c r="D3" t="s">
         <v>34</v>
       </c>
@@ -1166,9 +1178,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
       <c r="D4" t="s">
         <v>36</v>
       </c>
@@ -1177,9 +1189,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
       <c r="D5" t="s">
         <v>38</v>
       </c>
@@ -1188,9 +1200,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24"/>
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -1199,9 +1211,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" t="s">
         <v>41</v>
       </c>
@@ -1210,9 +1222,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" t="s">
         <v>42</v>
       </c>
@@ -1221,16 +1233,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="24">
         <v>0.5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F9" t="s">
@@ -1238,9 +1250,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
       <c r="D10" t="s">
         <v>47</v>
       </c>
@@ -1249,16 +1261,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="24">
         <v>0.5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
@@ -1266,9 +1278,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
       <c r="D12" t="s">
         <v>47</v>
       </c>
@@ -1310,13 +1322,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1378,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,525 +1401,573 @@
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="26"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11" t="s">
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11" t="s">
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="12">
-        <v>1</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
   <si>
     <t xml:space="preserve">priorite</t>
   </si>
@@ -247,28 +247,28 @@
     <t xml:space="preserve">table organisme et relation avec membre</t>
   </si>
   <si>
-    <t xml:space="preserve">ajout dans la logique promesse don(methodes)</t>
+    <t xml:space="preserve">ajout dans la logique promesse don(méthodes)</t>
   </si>
   <si>
     <t xml:space="preserve">promesse don</t>
   </si>
   <si>
-    <t xml:space="preserve">form validation(etoiles, message d'erreur, formulaire vide)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modal redirection après promesse don reusi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode de livraison interface, modification logique pour offrir don(2 radio butoons et leur desactivation si argent)</t>
+    <t xml:space="preserve">form validation(étoiles, message d'erreur, formulaire vide)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modal redirection après promesse don reçu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode de livraison interface, modification logique pour offrir don(2 radio butons et leur désactivation si argent)</t>
   </si>
   <si>
     <t xml:space="preserve">ajout des ville, province, code postal dans l'interface</t>
   </si>
   <si>
-    <t xml:space="preserve">modification dans la table concernant l'adress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modification logic pour offrir don pour les champ ajouter</t>
+    <t xml:space="preserve">modification dans la table concernant l'adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification logique pour offrir don pour les champ ajouter</t>
   </si>
   <si>
     <t xml:space="preserve">mis a jour des données de membre si un donateur existant</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">annuler</t>
   </si>
   <si>
-    <t xml:space="preserve">interface - liste des dons qui sont pas traités(nom, quantite, categorie, montant, mode livraison, date promise)</t>
+    <t xml:space="preserve">interface - liste des dons qui sont pas traités(nom, quantité, catégorie, montant, mode livraison, date promise)</t>
   </si>
   <si>
     <t xml:space="preserve">logique pour annuler </t>
@@ -295,10 +295,7 @@
     <t xml:space="preserve">ajout logique modifier</t>
   </si>
   <si>
-    <t xml:space="preserve">page d'acceuil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modification - button, caroussele ?</t>
+    <t xml:space="preserve">modification – button, caroussele ?</t>
   </si>
   <si>
     <t xml:space="preserve">traitement de don par employé</t>
@@ -313,16 +310,16 @@
     <t xml:space="preserve">envoie courriel au donateur</t>
   </si>
   <si>
-    <t xml:space="preserve">envoier courriel a partir de lien modifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se autrhetifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">propose se diponibilité comme benevole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buton nav pour formulaire</t>
+    <t xml:space="preserve">envoie courriel a partir de lien modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se authentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propose se disponibilité comme bénévole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button nav pour formulaire</t>
   </si>
   <si>
     <t xml:space="preserve">formulaire pour disponibilité</t>
@@ -331,7 +328,7 @@
     <t xml:space="preserve">table dans la base</t>
   </si>
   <si>
-    <t xml:space="preserve">class, DAO</t>
+    <t xml:space="preserve">classe, DAO</t>
   </si>
   <si>
     <t xml:space="preserve">logique CRUD</t>
@@ -652,7 +649,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="117.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -954,10 +951,10 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -1161,7 +1158,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="70.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -1240,17 +1237,17 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -1374,7 +1371,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="15" t="s">
         <v>78</v>
@@ -1464,7 +1461,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -1560,10 +1557,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>37</v>
@@ -1580,10 +1577,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
@@ -1601,7 +1598,7 @@
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
@@ -1619,7 +1616,7 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
@@ -1637,7 +1634,7 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
@@ -1655,7 +1652,7 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
@@ -1672,10 +1669,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>33</v>
@@ -1693,7 +1690,7 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>33</v>
@@ -1711,7 +1708,7 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24"/>
       <c r="B25" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>33</v>
@@ -1729,7 +1726,7 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24"/>
       <c r="B26" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>33</v>
@@ -1747,7 +1744,7 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24"/>
       <c r="B27" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>33</v>

--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -649,7 +649,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="117.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -951,7 +951,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.3"/>
@@ -1238,14 +1238,14 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
@@ -1575,7 +1575,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
         <v>91</v>
       </c>
@@ -1588,14 +1588,14 @@
       <c r="D18" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="23" t="s">
         <v>93</v>
@@ -1606,14 +1606,14 @@
       <c r="D19" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>94</v>
@@ -1624,10 +1624,10 @@
       <c r="D20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>

--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
   <si>
     <t>priorite</t>
   </si>
@@ -343,6 +343,24 @@
   </si>
   <si>
     <t xml:space="preserve">Mise à jour connection avec la page modifier  un don </t>
+  </si>
+  <si>
+    <t>Gestion Bénévole</t>
+  </si>
+  <si>
+    <t>Ajout des liens pour la modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afficher la liste des Bénévoles </t>
+  </si>
+  <si>
+    <t>Créer un lien pour permettre au Bénévole de modifier</t>
+  </si>
+  <si>
+    <t>son adresse et son courriel</t>
+  </si>
+  <si>
+    <t>Créer un lien pour permettre au Bénévole de désactiver</t>
   </si>
 </sst>
 </file>
@@ -442,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,12 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,6 +509,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,6 +524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,7 +904,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -896,7 +915,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -1150,13 +1169,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -1167,9 +1186,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="23"/>
       <c r="D3" t="s">
         <v>34</v>
       </c>
@@ -1178,9 +1197,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="23"/>
       <c r="D4" t="s">
         <v>36</v>
       </c>
@@ -1189,9 +1208,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
       <c r="D5" t="s">
         <v>38</v>
       </c>
@@ -1200,9 +1219,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="23"/>
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -1211,9 +1230,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" t="s">
         <v>41</v>
       </c>
@@ -1222,9 +1241,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" t="s">
         <v>42</v>
       </c>
@@ -1233,13 +1252,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>0.5</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1250,9 +1269,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" t="s">
         <v>47</v>
       </c>
@@ -1261,13 +1280,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>0.5</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1278,9 +1297,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" t="s">
         <v>47</v>
       </c>
@@ -1390,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,573 +1420,675 @@
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="14" t="s">
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="6" t="s">
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="6" t="s">
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="6" t="s">
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="9" t="s">
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="9" t="s">
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="9" t="s">
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="9" t="s">
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A26:A30"/>
+  <mergeCells count="8">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A33:A37"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A17:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
   <si>
     <t>priorite</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Mise à jour barre de navigation</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise à jour connection avec la page connection d' un don </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise à jour connection avec la page modifier  un don </t>
   </si>
   <si>
@@ -351,13 +348,19 @@
     <t>Gestion Bénévole</t>
   </si>
   <si>
-    <t>Afficher les dons attribuer au benevole</t>
-  </si>
-  <si>
-    <t>Modifier son adresse et son courriel</t>
-  </si>
-  <si>
     <t>Créer un lien pour permettre au Bénévole de désactiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour connection avec la page faire  un don </t>
+  </si>
+  <si>
+    <t>Afficher les informations sur le benevole après connexion</t>
+  </si>
+  <si>
+    <t>Créer un lien pour permettre au Bénévole de modifier les infos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> telles que:adresse, ville, province,code postale,téléphone</t>
   </si>
 </sst>
 </file>
@@ -461,18 +464,6 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -512,9 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -523,8 +511,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -936,7 +939,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -944,7 +947,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -955,7 +958,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -966,7 +969,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -977,7 +980,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -988,7 +991,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8">
@@ -999,7 +1002,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -1231,13 +1234,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="23">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -1248,9 +1251,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="23"/>
       <c r="D3" t="s">
         <v>34</v>
       </c>
@@ -1259,9 +1262,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="23"/>
       <c r="D4" t="s">
         <v>36</v>
       </c>
@@ -1270,9 +1273,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
       <c r="D5" t="s">
         <v>38</v>
       </c>
@@ -1281,9 +1284,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="23"/>
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -1292,9 +1295,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" t="s">
         <v>41</v>
       </c>
@@ -1303,9 +1306,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" t="s">
         <v>42</v>
       </c>
@@ -1314,16 +1317,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="23">
         <v>0.5</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F9" t="s">
@@ -1331,9 +1334,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" t="s">
         <v>47</v>
       </c>
@@ -1342,16 +1345,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="23">
         <v>0.5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
@@ -1359,9 +1362,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" t="s">
         <v>47</v>
       </c>
@@ -1404,13 +1407,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1474,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,663 +1487,665 @@
     <col min="2" max="2" width="59.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4" customWidth="1"/>
     <col min="6" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="12">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="D31" s="19">
+        <v>1</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="24">
-        <v>1</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="24">
-        <v>1</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="D32" s="19">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="24">
-        <v>1</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="D33" s="19">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="24">
-        <v>1</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
-      <c r="B35" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="B35" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
-      <c r="B36" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="24">
-        <v>1</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20814"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E400F40F-035F-4619-8AD0-4D0897013AD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
+    <sheet name=" SprintBacklog_1" sheetId="2" r:id="rId2"/>
+    <sheet name="PlanDeTests" sheetId="3" r:id="rId3"/>
+    <sheet name="SprintBacklog2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
   <si>
     <t>priorite</t>
   </si>
@@ -26,10 +33,10 @@
     <t>effort initial estimer</t>
   </si>
   <si>
-    <t>En tant que donnateurs, je dois pouvoir proposer un don</t>
-  </si>
-  <si>
-    <t>En tant que donnateur j'aimerais pouvoir proposer un don sans necessairement devoir creer de compte</t>
+    <t>En tant que donnateurs, je dois pouvoir proposer un don pour aider au organisme</t>
+  </si>
+  <si>
+    <t>entreprise faire un don</t>
   </si>
   <si>
     <t>En tant que donnateur je veux pouvoir annuler ma proposition de don tant que celle-ci n'a pas ete accepter par un employer</t>
@@ -38,15 +45,21 @@
     <t>En tant que donnateur je veux pouvoir modifier ma proposition de don tant que celle-ci n'a pas ete accepter par un employer</t>
   </si>
   <si>
+    <t>En tant qu'employer, je dois etre capable de consulter ma liste de proposition de don qui m'est attribuer</t>
+  </si>
+  <si>
+    <t>En tant qu'employer, je dois etre capable de daccepter/refuser les dons qui me sont attribuer</t>
+  </si>
+  <si>
+    <t>En tant que benevole, je dois pouvoir proposer(publier) mes disponibillitées pour du bénévolat aux employés du centre</t>
+  </si>
+  <si>
     <t>En tant que bennevole je veux pouvoir me creer un compte</t>
   </si>
   <si>
     <t>En tant que bennevole je veux pouvoir modifier les informations de mon compte comme : numero de telephone, adresse</t>
   </si>
   <si>
-    <t>En tant que benevole, je dois pouvoir proposer(publier) mes disponibillitées pour du bénévolat aux employés du centre</t>
-  </si>
-  <si>
     <t>En tant que benevole, je dois pouvoir supprimer mes disponibillitées pour du bénévolat aux employés du centre</t>
   </si>
   <si>
@@ -59,12 +72,6 @@
     <t>En tant qu'employer, j'aimerais pouvoir modifier les informations de mon compte tel que : numero de telephone, adresse </t>
   </si>
   <si>
-    <t>En tant qu'employer, je dois etre capable de consulter ma liste de proposition de don qui m'est attribuer</t>
-  </si>
-  <si>
-    <t>En tant qu'employer, je dois etre capable de daccepter/refuser les dons qui me sont attribuer</t>
-  </si>
-  <si>
     <t>En tant que superviseur, je dois etre capable de modifier les informations des comptes des employer</t>
   </si>
   <si>
@@ -93,27 +100,351 @@
   </si>
   <si>
     <t>En tant que superviseur, je dois pouvoir desactiver des compte d'employer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant que donnateur j'aimerais pouvoir proposer un don </t>
+  </si>
+  <si>
+    <t>À faire</t>
+  </si>
+  <si>
+    <t>En Cours</t>
+  </si>
+  <si>
+    <t>A vérifier</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>En tant que donateurs, je dois pouvoir proposer un don pour aider au organisme</t>
+  </si>
+  <si>
+    <t>MVC2 structure</t>
+  </si>
+  <si>
+    <t>Darryl</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>en équipe</t>
+  </si>
+  <si>
+    <t>page d'accueil</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>Tahar</t>
+  </si>
+  <si>
+    <t>faire un don interface</t>
+  </si>
+  <si>
+    <t>faire un don logique</t>
+  </si>
+  <si>
+    <t>envoyer courriel</t>
+  </si>
+  <si>
+    <t>Nikoleta</t>
+  </si>
+  <si>
+    <t>En tant que donateur je veux pouvoir annuler ma proposition de don tant que celle-ci n'a pas été accepter par un employer</t>
+  </si>
+  <si>
+    <t>interface liste des donnes d'un certain donateur, avec option annuler</t>
+  </si>
+  <si>
+    <t>Manesh</t>
+  </si>
+  <si>
+    <t>logique annuler don</t>
+  </si>
+  <si>
+    <t>En tant que donateur je veux pouvoir modifier ma proposition de don tant que celle-ci n'a pas été accepter par un employer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter option modifier dans l'interface liste des donnes </t>
+  </si>
+  <si>
+    <t>Tâche à Tester</t>
+  </si>
+  <si>
+    <t>Testé 05.09.2018</t>
+  </si>
+  <si>
+    <t>Résultat attendu</t>
+  </si>
+  <si>
+    <t>insertion de don par donateur non-existant dans la système</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>insertion d’un donateur dans la table membre, insertion d’un don dans la table dons</t>
+  </si>
+  <si>
+    <t>insertion de don par donateur existant dans la système</t>
+  </si>
+  <si>
+    <t>insertion d’un don dans la table dons avec le id de donateur</t>
+  </si>
+  <si>
+    <t>insertion de don par donateur existant dans la système et mis à jour de ses données personnelles</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>modification d’un don</t>
+  </si>
+  <si>
+    <t>annulation d’un don</t>
+  </si>
+  <si>
+    <t>user story</t>
+  </si>
+  <si>
+    <t>tache</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Jour</t>
+  </si>
+  <si>
+    <t>à faire</t>
+  </si>
+  <si>
+    <t>en cours</t>
+  </si>
+  <si>
+    <t>à verifier</t>
+  </si>
+  <si>
+    <t>terminer</t>
+  </si>
+  <si>
+    <t>faire don comme organisme</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>table organisme et relation avec membre</t>
+  </si>
+  <si>
+    <t>ajout dans la logique promesse don(méthodes)</t>
+  </si>
+  <si>
+    <t>promesse don</t>
+  </si>
+  <si>
+    <t>form validation(étoiles, message d'erreur, formulaire vide)</t>
+  </si>
+  <si>
+    <t>modal redirection après promesse don reçu</t>
+  </si>
+  <si>
+    <t>mode de livraison interface, modification logique pour offrir don(2 radio butons et leur désactivation si argent)</t>
+  </si>
+  <si>
+    <t>ajout des ville, province, code postal dans l'interface</t>
+  </si>
+  <si>
+    <t>modification dans la table concernant l'adresse</t>
+  </si>
+  <si>
+    <t>modification logique pour offrir don pour les champ ajouter</t>
+  </si>
+  <si>
+    <t>mis a jour des données de membre si un donateur existant</t>
+  </si>
+  <si>
+    <t>annuler</t>
+  </si>
+  <si>
+    <t>interface - liste des dons qui sont pas traités(nom, quantité, catégorie, montant, mode livraison, date promise)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logique pour annuler </t>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>ajout lien modifier</t>
+  </si>
+  <si>
+    <t>interface pour modification de don(incluant l'information de donateur, sans le courriel, 2 buttons sauvegarder et annuler)</t>
+  </si>
+  <si>
+    <t>ajout logique modifier</t>
+  </si>
+  <si>
+    <t>traitement de don par employé</t>
+  </si>
+  <si>
+    <t>interface liste de dons de l'emploie</t>
+  </si>
+  <si>
+    <t>logique traitement de dons, 2 boutons accepter, refuser, ecrire commentaire pour refuse</t>
+  </si>
+  <si>
+    <t>envoie courriel au donateur</t>
+  </si>
+  <si>
+    <t>envoie courriel a partir de lien modifier</t>
+  </si>
+  <si>
+    <t>se authentifier</t>
+  </si>
+  <si>
+    <t>propose se disponibilité comme bénévole</t>
+  </si>
+  <si>
+    <t>button nav pour formulaire</t>
+  </si>
+  <si>
+    <t>formulaire pour disponibilité</t>
+  </si>
+  <si>
+    <t>table dans la base</t>
+  </si>
+  <si>
+    <t>classe, DAO</t>
+  </si>
+  <si>
+    <t>logique CRUD</t>
+  </si>
+  <si>
+    <t>Mise à jour page d'acceuil</t>
+  </si>
+  <si>
+    <t>Mise à jour image catégorie de don</t>
+  </si>
+  <si>
+    <t>Mise à jour barre de navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour connection avec la page connection d' un don </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour connection avec la page modifier  un don </t>
+  </si>
+  <si>
+    <t>Ajout des liens pour la modification</t>
+  </si>
+  <si>
+    <t>Gestion Bénévole</t>
+  </si>
+  <si>
+    <t>Afficher les dons attribuer au benevole</t>
+  </si>
+  <si>
+    <t>Modifier son adresse et son courriel</t>
+  </si>
+  <si>
+    <t>Créer un lien pour permettre au Bénévole de désactiver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,20 +459,151 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF33CC"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -158,44 +620,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -223,31 +685,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -275,23 +720,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -303,160 +731,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="117.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,84 +932,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -566,7 +1017,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -577,7 +1028,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -588,7 +1039,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -596,10 +1047,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -607,10 +1058,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -621,7 +1072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -632,7 +1083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -643,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -654,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -665,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -676,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -687,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -698,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -709,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -720,167 +1171,989 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="1025" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+    <row r="2" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+      <c r="G3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
+    <row r="9" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
+      <c r="C9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
+      <c r="F9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
+      <c r="C11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="1025" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
+      <c r="B1" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
+    <col min="6" max="1025" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="24">
+        <v>1</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddaar\Desktop\T5\UwAmp\UwAmp\www\pprojet_helena\LogiDons-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC088DFC-1870-4B2F-91B6-21DCEB2A7A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>priorite</t>
   </si>
@@ -36,9 +42,6 @@
     <t>En tant que donnateurs, je dois pouvoir proposer un don pour aider au organisme</t>
   </si>
   <si>
-    <t>entreprise faire un don</t>
-  </si>
-  <si>
     <t>En tant que donnateur je veux pouvoir annuler ma proposition de don tant que celle-ci n'a pas ete accepter par un employer</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
     <t>En tant que benevole, je dois pouvoir modifier mes disponibillitées pour du bénévolat aux employés du centre</t>
   </si>
   <si>
-    <t>En tant que bennevole je veux pouvoir supprimer mon compte</t>
-  </si>
-  <si>
     <t>En tant qu'employer, j'aimerais pouvoir modifier les informations de mon compte tel que : numero de telephone, adresse </t>
   </si>
   <si>
@@ -234,9 +234,6 @@
     <t>terminer</t>
   </si>
   <si>
-    <t>faire don comme organisme</t>
-  </si>
-  <si>
     <t>interface</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>ajout dans la logique promesse don(méthodes)</t>
   </si>
   <si>
-    <t>promesse don</t>
-  </si>
-  <si>
     <t>form validation(étoiles, message d'erreur, formulaire vide)</t>
   </si>
   <si>
@@ -270,21 +264,12 @@
     <t>modification logique pour offrir don pour les champ ajouter</t>
   </si>
   <si>
-    <t>mis a jour des données de membre si un donateur existant</t>
-  </si>
-  <si>
-    <t>annuler</t>
-  </si>
-  <si>
     <t>interface - liste des dons qui sont pas traités(nom, quantité, catégorie, montant, mode livraison, date promise)</t>
   </si>
   <si>
     <t xml:space="preserve">logique pour annuler </t>
   </si>
   <si>
-    <t>modifier</t>
-  </si>
-  <si>
     <t>ajout lien modifier</t>
   </si>
   <si>
@@ -294,9 +279,6 @@
     <t>ajout logique modifier</t>
   </si>
   <si>
-    <t>traitement de don par employé</t>
-  </si>
-  <si>
     <t>interface liste de dons de l'emploie</t>
   </si>
   <si>
@@ -306,15 +288,9 @@
     <t>envoie courriel au donateur</t>
   </si>
   <si>
-    <t>envoie courriel a partir de lien modifier</t>
-  </si>
-  <si>
     <t>se authentifier</t>
   </si>
   <si>
-    <t>propose se disponibilité comme bénévole</t>
-  </si>
-  <si>
     <t>button nav pour formulaire</t>
   </si>
   <si>
@@ -345,9 +321,6 @@
     <t>Ajout des liens pour la modification</t>
   </si>
   <si>
-    <t>Gestion Bénévole</t>
-  </si>
-  <si>
     <t>Créer un lien pour permettre au Bénévole de désactiver</t>
   </si>
   <si>
@@ -361,12 +334,18 @@
   </si>
   <si>
     <t xml:space="preserve"> telles que:adresse, ville, province,code postale,téléphone</t>
+  </si>
+  <si>
+    <t>En tant que entreprise, je dois pouvoir proposer un don pour aider au organisme</t>
+  </si>
+  <si>
+    <t>En tant que bennevole je veux pouvoir desactiver mon compte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -458,11 +437,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -474,60 +468,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,6 +601,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -655,7 +651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,9 +684,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,6 +736,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -898,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +970,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -959,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -970,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -981,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -992,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1003,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1011,10 +1044,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -1022,10 +1055,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -1033,10 +1066,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -1044,10 +1077,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -1058,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -1069,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -1080,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -1091,7 +1124,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1102,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1113,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1124,7 +1157,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1135,7 +1168,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1146,7 +1179,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1157,7 +1190,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1168,7 +1201,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -1179,7 +1212,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -1192,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1221,155 +1254,155 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="23"/>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="23"/>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23"/>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="23"/>
-      <c r="D7" t="s">
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="23"/>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>2</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="23"/>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>3</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1408,59 +1441,59 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1474,16 +1507,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="2" width="59.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
@@ -1491,672 +1524,658 @@
     <col min="6" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="8" t="s">
+      <c r="C5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="8" t="s">
+      <c r="C6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="C7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="10" t="s">
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="12" t="s">
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="8" t="s">
+      <c r="C11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="8" t="s">
+      <c r="C12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="8" t="s">
+      <c r="C13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="1" t="s">
+      <c r="C14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="C15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="15" t="s">
+      <c r="C17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="C18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="14" t="s">
+      <c r="C20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="15" t="s">
+      <c r="C21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="C22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="17" t="s">
+      <c r="C24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="1" t="s">
+      <c r="B25" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="1" t="s">
+      <c r="C25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="1" t="s">
+      <c r="C26" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="26">
+        <v>1</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C29" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="19">
-        <v>1</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="19">
-        <v>1</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="19">
-        <v>1</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19">
-        <v>1</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="19">
-        <v>1</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="19">
-        <v>1</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="19">
-        <v>1</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="C33" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="26">
+        <v>1</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="27" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="19">
-        <v>1</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="19">
-        <v>1</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="27" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
